--- a/biology/Botanique/Staphylea_pinnata/Staphylea_pinnata.xlsx
+++ b/biology/Botanique/Staphylea_pinnata/Staphylea_pinnata.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Arbre aux chapelets, Faux pistachier, Patenôtrier
 Staphylea pinnata, en français Patenôtrier, Faux pistachier ou Arbre aux chapelets, est une espèce de plantes à fleurs de la famille des Staphyleaceae. Cet arbuste se rencontre en Europe.
@@ -512,9 +524,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Staphylea pinnata est un arbuste de deux à cinq mètres de haut, à fleurs blanches odorantes[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Staphylea pinnata est un arbuste de deux à cinq mètres de haut, à fleurs blanches odorantes.
 </t>
         </is>
       </c>
@@ -543,10 +557,12 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">C'est une espèce d'Europe centrale et occidentale, spontanée en Alsace et dans le nord du Jura où elle atteint la limite occidentale de son aire de répartition[2],[1].
-Ce taxon se rencontre en Albanie, en Allemagne, en Arménie, en Autriche, en Bosnie-Herzégovine, en Bulgarie, en Croatie, en France, en Grèce, en Géorgie, en Hongrie, en Italie, au Luxembourg, en Macédoine du Nord, au Monténégro, en Pologne, en Roumanie, en Serbie, en Slovaquie, en Slovénie, en Suisse, en Syrie, en Tchéquie, en Turquie et en Ukraine[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C'est une espèce d'Europe centrale et occidentale, spontanée en Alsace et dans le nord du Jura où elle atteint la limite occidentale de son aire de répartition,.
+Ce taxon se rencontre en Albanie, en Allemagne, en Arménie, en Autriche, en Bosnie-Herzégovine, en Bulgarie, en Croatie, en France, en Grèce, en Géorgie, en Hongrie, en Italie, au Luxembourg, en Macédoine du Nord, au Monténégro, en Pologne, en Roumanie, en Serbie, en Slovaquie, en Slovénie, en Suisse, en Syrie, en Tchéquie, en Turquie et en Ukraine.
 </t>
         </is>
       </c>
@@ -575,9 +591,11 @@
           <t>Culture</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Staphylea pinnata se multiplie facilement par semis ou drageons[1].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Staphylea pinnata se multiplie facilement par semis ou drageons.
 </t>
         </is>
       </c>
@@ -606,9 +624,11 @@
           <t>Utilisations</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Depuis le Moyen Âge, les graines de Staphylea pinnata ont été utilisées pour fabriquer des chapelets[4],[1].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Depuis le Moyen Âge, les graines de Staphylea pinnata ont été utilisées pour fabriquer des chapelets,.
 </t>
         </is>
       </c>
@@ -637,7 +657,9 @@
           <t>Statut de protection</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">En France, la plante figure sur la liste des espèces végétales protégées en Alsace.
 En Suisse, elle figure sur la liste rouge des plantes.
@@ -669,11 +691,13 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>Le nom correct complet (avec auteur) de ce taxon est Staphylea pinnata L.[5].
-Ce taxon porte en français les noms vernaculaires ou normalisés suivants : Faux pistachier[6],[7],[8], Nez-coupé[7],[8], Staphylier[8], Staphylier penné[6],[7],[8],[5].
-Staphylea pinnata a pour synonymes[5] :
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Le nom correct complet (avec auteur) de ce taxon est Staphylea pinnata L..
+Ce taxon porte en français les noms vernaculaires ou normalisés suivants : Faux pistachier Nez-coupé Staphylier, Staphylier penné.
+Staphylea pinnata a pour synonymes :
 Staphylea pinnatifida Gueldenst.
 Staphyllodendron pinnatum (L.) Scop., 1771
 Staphylodendron pinnatum (L.) Crantz</t>
